--- a/Library/Library.xlsx
+++ b/Library/Library.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
     <sheet name="Glossary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Library!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -110,9 +113,6 @@
     <t>standards</t>
   </si>
   <si>
-    <t>studies</t>
-  </si>
-  <si>
     <t>CiOSD-PUD</t>
   </si>
   <si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Clean Water Program</t>
+  </si>
+  <si>
+    <t>environmental regulations</t>
+  </si>
+  <si>
+    <t>CoOSD\Bio Mit Ord</t>
+  </si>
+  <si>
+    <t>CWP Program Guidelines</t>
+  </si>
+  <si>
+    <t>CoOSD Biological Mitigation Ordinance</t>
   </si>
 </sst>
 </file>
@@ -189,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,15 +209,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,264 +668,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="str">
+        <f>HYPERLINK(G2,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1995</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>HYPERLINK(G3,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>HYPERLINK(G4,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>HYPERLINK(G5,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>HYPERLINK(G6,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>HYPERLINK(G7,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>HYPERLINK(G8,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>HYPERLINK(G9,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>HYPERLINK(G10,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>HYPERLINK(F2,"Go")</f>
+      <c r="D11" s="7" t="str">
+        <f>HYPERLINK(G11,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E11" si="0">HYPERLINK(F3,"Go")</f>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>HYPERLINK(G12,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Go</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -776,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -787,12 +956,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -803,23 +972,23 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,10 +1001,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
